--- a/Unity/Assets/Config/Excel/Data/UnitConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Data/UnitConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>##var</t>
   </si>
@@ -34,13 +34,31 @@
     <t>int</t>
   </si>
   <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>Monster</t>
+  </si>
+  <si>
+    <t>NPC</t>
+  </si>
+  <si>
+    <t>Bullet</t>
+  </si>
+  <si>
     <t>##</t>
   </si>
   <si>
     <t>属性配置Id</t>
   </si>
   <si>
-    <t>类型</t>
+    <t>玩家角色</t>
+  </si>
+  <si>
+    <t>怪物</t>
+  </si>
+  <si>
+    <t>弹道</t>
   </si>
 </sst>
 </file>
@@ -660,7 +678,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
@@ -668,6 +686,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1019,13 +1043,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.6" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="21.1634615384615" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.6634615384615" style="4" customWidth="1"/>
@@ -1034,7 +1058,7 @@
     <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.8" spans="1:4">
+    <row r="1" s="1" customFormat="1" ht="16.8" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1044,11 +1068,14 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="16.8" spans="1:4">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="16.8" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1058,52 +1085,322 @@
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="16.8" spans="1:4">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="16.8" spans="1:7">
       <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="16.8" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" s="3" customFormat="1"/>
-    <row r="7" spans="1:2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="3"/>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="3">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="3">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="3">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="3">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4">
+        <v>8</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="3">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4">
+        <v>9</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="3">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4">
+        <v>10</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="3">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4">
+        <v>11</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="3">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4">
+        <v>12</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="3">
+        <v>13</v>
+      </c>
+      <c r="C17" s="4">
+        <v>13</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="3">
+        <v>14</v>
+      </c>
+      <c r="C18" s="4">
+        <v>14</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="3">
+        <v>15</v>
+      </c>
+      <c r="C19" s="4">
+        <v>15</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="3">
+        <v>16</v>
+      </c>
+      <c r="C20" s="4">
+        <v>16</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="3">
+        <v>17</v>
+      </c>
+      <c r="C21" s="4">
+        <v>17</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="3">
+        <v>18</v>
+      </c>
+      <c r="C22" s="4">
+        <v>18</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="3">
+        <v>19</v>
+      </c>
+      <c r="C23" s="4">
+        <v>19</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="3">
+        <v>20</v>
+      </c>
+      <c r="C24" s="4">
+        <v>20</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="3">
+        <v>21</v>
+      </c>
+      <c r="C25" s="4">
+        <v>21</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="3">
+        <v>22</v>
+      </c>
+      <c r="C26" s="4">
+        <v>22</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="3">
+        <v>23</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" s="3" customFormat="1"/>
+    <row r="29" spans="1:2">
+      <c r="A29" s="7"/>
+      <c r="B29" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="不同的UnitType需要查询相关的配置表" sqref="C5:C26 C27:C1048576"/>
+  </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Unity/Assets/Config/Excel/Data/UnitConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Data/UnitConfig.xlsx
@@ -1045,8 +1045,8 @@
   <sheetPr/>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.6" outlineLevelCol="6"/>
@@ -1096,8 +1096,6 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1383,7 +1381,6 @@
       <c r="C27" s="4">
         <v>1</v>
       </c>
-      <c r="D27" s="4"/>
       <c r="E27" s="4">
         <v>1</v>
       </c>
